--- a/Airpollution_VGIdata_processing/open_air_pollution.xlsx
+++ b/Airpollution_VGIdata_processing/open_air_pollution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leikoy_lite\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Root\Github\Experiments-for-qualifier\Airpollution_VGIdata_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37BE6E3-1AD4-4AEC-8BE5-A533BF4F3638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE47751E-02A4-4294-9BEF-01CC41EAA25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4908,10 +4908,14 @@
   <dimension ref="A1:J1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -4936,10 +4940,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
